--- a/medicine/Enfance/Tales_from_Shakespeare/Tales_from_Shakespeare.xlsx
+++ b/medicine/Enfance/Tales_from_Shakespeare/Tales_from_Shakespeare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tales from Shakespeare (Contes d'après Shakespeare), sous-titré designed for the use of young persons (destiné aux jeunes gens) est un livre pour enfants en anglais, paru en deux volumes en 1807, avec une sélection de contes tirés et adaptés de l'œuvre de Shakespeare par Charles Lamb et sa sœur Mary Lamb.
 La première édition comprend 20 hors-textes dessiné par William Mulready et gravés par William Blake, imprimé à Londres par Thomas Hodgkins, pour The Juvenile Library. En 1809, c'est William Godwin qui le réimprime à ses frais.
-Le livre a été illustré par Arthur Rackham en 1899 et 1909, puis en 1934 par D. C. Eyles (en)[1].
+Le livre a été illustré par Arthur Rackham en 1899 et 1909, puis en 1934 par D. C. Eyles (en).
 Tales from Shakespeare ramène la trame dramaturgique et les scénarios compliqués des tragédies et comédies de Shakespeare à un niveau simple que les enfants peuvent lire et comprendre. Bien que dans cette adaptation on retrouve des fragments et des phrases directement issues de l'œuvre de Shakespeare, les deux écrivains ont délibérément évité des mots inconnus ou moins courants en anglais moderne.
 Mary Lamb a pris les comédies et la préface à son compte, tandis que Charles a écrit les tragédies. Outre ses essais, ce livre est devenu le travail le plus célèbre de Charles. Toutefois, le succès de ce livre est dû principalement à Mary, bien que son nom ne soit même pas mentionné dans les deux premières éditions.
 Les 21 histoires sont les suivantes :
